--- a/data/outputs/数学期刊(下)_altmetric/72Archive for Mathematical Logic.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/72Archive for Mathematical Logic.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE54"/>
+  <dimension ref="A1:CF54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1038,6 +1043,9 @@
       </c>
       <c r="CE2" t="n">
         <v>0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -1278,6 +1286,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1529,6 +1540,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1780,6 +1794,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2035,6 +2052,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2290,6 +2310,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2545,6 +2568,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2800,6 +2826,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3051,6 +3080,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3304,6 +3336,9 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3545,6 +3580,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3792,6 +3830,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4043,6 +4084,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4300,6 +4344,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4541,6 +4588,9 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4782,6 +4832,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5025,6 +5078,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5268,6 +5324,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5517,6 +5576,9 @@
         <v>0</v>
       </c>
       <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5758,6 +5820,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6007,6 +6072,9 @@
         <v>0</v>
       </c>
       <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6252,6 +6320,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6511,6 +6582,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6764,6 +6838,9 @@
         <v>0</v>
       </c>
       <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7011,6 +7088,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7258,6 +7338,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7507,6 +7590,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7752,6 +7838,9 @@
         <v>0</v>
       </c>
       <c r="CE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7997,6 +8086,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8236,6 +8328,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8477,6 +8572,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8728,6 +8826,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8981,6 +9082,9 @@
         <v>0</v>
       </c>
       <c r="CE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9226,6 +9330,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9471,6 +9578,9 @@
         <v>0</v>
       </c>
       <c r="CE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9718,6 +9828,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9965,6 +10078,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10212,6 +10328,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10463,6 +10582,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10714,6 +10836,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10961,6 +11086,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11208,6 +11336,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11453,6 +11584,9 @@
         <v>0</v>
       </c>
       <c r="CE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11694,6 +11828,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11933,6 +12070,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12180,6 +12320,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12431,6 +12574,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12678,6 +12824,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12929,6 +13078,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13178,6 +13330,9 @@
         <v>0</v>
       </c>
       <c r="CE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13419,6 +13574,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13679,6 +13837,9 @@
       </c>
       <c r="CE53" t="n">
         <v>0</v>
+      </c>
+      <c r="CF53" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="54">
@@ -13915,6 +14076,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
